--- a/biology/Botanique/Quercus_afares/Quercus_afares.xlsx
+++ b/biology/Botanique/Quercus_afares/Quercus_afares.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chêne afarès, بلوط_الأفراس en arabe, est un arbre à feuillage caduc de la famille des Fagacées, du genre Quercus, endémique d'Algérie et de Tunisie.
-Le nom vernaculaire arabe, afares, a probablement inspiré le paléontologue et botaniste  Auguste Pomel. Le nom tamazight est techt[1].
+Le nom vernaculaire arabe, afares, a probablement inspiré le paléontologue et botaniste  Auguste Pomel. Le nom tamazight est techt.
 </t>
         </is>
       </c>
@@ -512,13 +524,15 @@
           <t>Description générale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La description est issue de la diagnose d'Auguste Pomel[2] et de la description de Pierre Quézel &amp; Sébastien Santa[3] et de Germaine Pottier-Alapetite[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La description est issue de la diagnose d'Auguste Pomel et de la description de Pierre Quézel &amp; Sébastien Santa et de Germaine Pottier-Alapetite.
 Port général : arbre pouvant atteindre 25 à 30 mètres, au port fastigié étant jeune puis devenant pyramidal en se terminant en dôme arrondi.
 Appareil végétatif : tronc à l'écorce très rugueuse. Feuilles caduques ; oblongues plus ou moins lancéolées, dentées comme les feuilles d'un châtaignier, à la base arrondie et au sommet en pointe ; veloutées sur les deux faces lorsqu'elles sont jeunes, puis parsemées de poils au-dessus et veloutées en dessous ; nervures secondaires assez nombreuses et parallèles.
 Appareil reproducteur : Cupules couvertes d'écailles étalées ou retroussées. Glands mûrissant l'année suivante.
-Origine : Quercus afares est une espèce stabilisée née de l'hybridation entre Quercus suber et Quercus canariensis[5].</t>
+Origine : Quercus afares est une espèce stabilisée née de l'hybridation entre Quercus suber et Quercus canariensis.</t>
         </is>
       </c>
     </row>
@@ -546,9 +560,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La Base de données des plantes d'Afrique (BDPA)                       (4 juin 2013)[6] donne les synonymes :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La Base de données des plantes d'Afrique (BDPA)                       (4 juin 2013) donne les synonymes :
 synonyme homotypique : Quercus castaniifolia subsp. afares (Pomel) Maire (1933)
 synonymes hétérotypiques :
 Quercus afares var. cerrifolia (Villar) Maire &amp; Weiller (1961)
@@ -583,11 +599,13 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Régions d'origine : le chêne afarès est endémique du Nord-est de l'Algérie (Tell à l'Est d'Alger[3]) et du Nord-Ouest de la Tunisie (forêt au Sud de Tabarka[4]).
-Habitat : Montagnes siliceuses bien arrosées[4].
-Phytosociologie : Quercus afares est l'une des caractéristiques du Paeonio atlanticae-Cedrion atlanticae[7]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Régions d'origine : le chêne afarès est endémique du Nord-est de l'Algérie (Tell à l'Est d'Alger) et du Nord-Ouest de la Tunisie (forêt au Sud de Tabarka).
+Habitat : Montagnes siliceuses bien arrosées.
+Phytosociologie : Quercus afares est l'une des caractéristiques du Paeonio atlanticae-Cedrion atlanticae
 Protection : Quercus afares est inscrite sur la liste des espèces végétales non cultivées protégées sur l’ensemble du territoire algérien.</t>
         </is>
       </c>
